--- a/test_accuracy_score.xlsx
+++ b/test_accuracy_score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gridlock_fer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09AEDFA-1DDB-40A3-8D7B-91D34EB77D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03AE713-FE0F-4388-983F-4633ACCEC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{1045C95B-88B0-4180-894E-5D0136F7942D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>accuracy</t>
   </si>
@@ -44,7 +44,10 @@
     <t>batch</t>
   </si>
   <si>
-    <t>mean accuracy</t>
+    <t>no. images</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -52,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -79,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -87,11 +90,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -100,7 +132,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,63 +468,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA041AA3-ACE4-42E1-938B-43B49A15ACE8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>999</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.97573839662447204</v>
-      </c>
-      <c r="C2" s="4">
-        <f>AVERAGE(B2:B5)</f>
-        <v>0.97665879455292925</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.97982062780268997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
+        <v>995</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.97485029940119705</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
+        <v>822</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.97622585438335796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B2:B5)</f>
+        <v>3841</v>
+      </c>
+      <c r="C6" s="7">
+        <f>AVERAGE(C2:C5)</f>
+        <v>0.97665879455292925</v>
       </c>
     </row>
   </sheetData>
